--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-quick.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-quick.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAworkspace\项目\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\HzeroDev\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C06E14-A2DF-48F4-801F-7D5CE038A541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28691" windowHeight="14218" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -44,7 +43,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -76,7 +74,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -95,7 +92,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -114,7 +110,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -165,7 +160,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -184,7 +178,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -203,7 +196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -226,7 +218,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -247,7 +238,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -269,7 +259,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -290,7 +279,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -321,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -352,7 +339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -371,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -390,7 +375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -409,7 +393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -428,7 +411,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -457,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -476,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -495,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -514,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -545,7 +523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -564,7 +541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -583,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -603,7 +578,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -622,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -642,7 +615,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -673,7 +645,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -692,7 +663,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -716,7 +686,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -735,7 +704,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -754,7 +722,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -773,7 +740,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -792,7 +758,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -823,7 +788,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -854,7 +818,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -885,7 +848,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -904,7 +866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -928,7 +889,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -947,7 +907,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -966,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -986,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1006,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1026,7 +982,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1047,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1067,7 +1021,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1083,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1104,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1135,7 +1086,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1154,7 +1104,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1175,7 +1124,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1207,7 +1155,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1226,7 +1173,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1245,7 +1191,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1279,7 +1224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1298,7 +1242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1317,7 +1260,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1336,7 +1278,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1381,7 +1322,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1426,7 +1366,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1460,7 +1399,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1479,7 +1417,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1498,7 +1435,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1518,7 +1454,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1542,7 +1477,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1561,7 +1495,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1580,7 +1513,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1600,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1654,7 +1585,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1673,7 +1603,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1692,7 +1621,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1712,7 +1640,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1731,7 +1658,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1750,7 +1676,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1769,7 +1694,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1789,7 +1713,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1808,7 +1731,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1827,7 +1749,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1846,7 +1767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1911,7 +1831,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1942,7 +1861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1961,7 +1879,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1996,7 +1913,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-06</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2068,7 +1985,7 @@
     <t>IM</t>
   </si>
   <si>
-    <t>message</t>
+    <t>im</t>
   </si>
   <si>
     <t>40</t>
@@ -2083,69 +2000,95 @@
     <t>now</t>
   </si>
   <si>
+    <t>159332009760137303</t>
+  </si>
+  <si>
     <t>HZERO.HELP</t>
   </si>
   <si>
     <t>帮助文档</t>
   </si>
   <si>
-    <t>xinxitishi</t>
+    <t>help document</t>
+  </si>
+  <si>
+    <t>bangzhuwendang</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>NAVIGATE</t>
+  </si>
+  <si>
+    <t>HZERO.TRACE_LOG</t>
+  </si>
+  <si>
+    <t>日志追溯</t>
+  </si>
+  <si>
+    <t>语言选择框</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>HZERO.MULTIPLE_LANGUAGE</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>HZERO.NOTICE_ICON</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>租户</t>
+  </si>
+  <si>
+    <t>HZERO.TENANT_SELECT</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>HZERO.MULTIPLE_SKIN</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
     <t>19893</t>
   </si>
   <si>
-    <t>NAVIGATE</t>
-  </si>
-  <si>
-    <t>HZERO.TRACE_LOG</t>
-  </si>
-  <si>
-    <t>日志追溯</t>
-  </si>
-  <si>
-    <t>语言选择框</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>HZERO.MULTIPLE_LANGUAGE</t>
-  </si>
-  <si>
-    <t>语言</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>HZERO.NOTICE_ICON</t>
-  </si>
-  <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>租户</t>
-  </si>
-  <si>
-    <t>HZERO.TENANT_SELECT</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>IM</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <t>HZERO.APM_TRACE_LOG</t>
+  </si>
+  <si>
+    <t>服务链路</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>HZERO.SHORTCUT_KEY</t>
+  </si>
+  <si>
+    <t>快捷键说明</t>
+  </si>
+  <si>
+    <t>kuaijiejian</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2164,13 +2107,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2183,14 +2125,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2217,13 +2157,11 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2321,6 +2259,11 @@
       <color indexed="48"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2461,7 +2404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2525,7 +2468,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2544,7 +2486,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2884,59 +2826,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.55"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+    <row r="1" spans="1:8" ht="64.45" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="43" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2953,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2973,7 +2915,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.65">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2987,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.65">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2998,7 +2940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="70.2">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3030,7 +2972,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="35.1">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3047,13 +2989,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3061,7 +3003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3069,7 +3011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3077,7 +3019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3089,21 +3031,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="39"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.65">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3125,21 +3067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="10" width="17.21875" customWidth="1"/>
-    <col min="16" max="16" width="22.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17.55"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="27" t="s">
@@ -3241,8 +3176,8 @@
       <c r="H8" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="39" t="s">
-        <v>97</v>
+      <c r="I8" t="s">
+        <v>73</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -3262,14 +3197,14 @@
       <c r="Q8" t="s">
         <v>76</v>
       </c>
-      <c r="R8">
-        <v>0</v>
+      <c r="R8" t="s">
+        <v>76</v>
       </c>
       <c r="S8" t="s">
         <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3280,40 +3215,40 @@
         <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
         <v>76</v>
       </c>
-      <c r="R9">
-        <v>0</v>
+      <c r="R9" t="s">
+        <v>76</v>
       </c>
       <c r="S9" t="s">
         <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3321,25 +3256,25 @@
         <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
         <v>86</v>
       </c>
-      <c r="I10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
       <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
         <v>76</v>
@@ -3351,7 +3286,7 @@
         <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3359,22 +3294,22 @@
         <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>89</v>
-      </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3389,7 +3324,7 @@
         <v>78</v>
       </c>
       <c r="T11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3397,7 +3332,7 @@
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
         <v>92</v>
@@ -3412,7 +3347,7 @@
         <v>92</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
         <v>77</v>
@@ -3427,7 +3362,7 @@
         <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3435,7 +3370,7 @@
         <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
         <v>95</v>
@@ -3465,12 +3400,131 @@
         <v>78</v>
       </c>
       <c r="T13" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>